--- a/Labs/Lab7Optimization/Book1.xlsx
+++ b/Labs/Lab7Optimization/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\610145\EA\Labs\Lab7Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSCS\EA\Labs\Lab7Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04A8798E-D351-4EB6-BB75-A97D26C072CC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B86749E-29FE-42FA-83E6-890B4D0302DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{579AFFE1-3961-4F73-B8E1-DE768C24BA28}"/>
   </bookViews>
@@ -95,6 +95,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>OptimalTime(ms) Vs BatchSize</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -162,7 +187,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$19</c:f>
+              <c:f>Sheet1!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -219,7 +244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$19</c:f>
+              <c:f>Sheet1!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1034,13 +1059,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1066,6 +1091,64 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1150700" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9F616F-ACB9-4D6F-B69D-22CB28A57DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="3324225"/>
+          <a:ext cx="1150700" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Batch Size (N)  -&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1366,139 +1449,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF5C8684-7A1E-4823-93EE-E77433A9B1BA}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A2:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>5</v>
-      </c>
-      <c r="B1">
-        <v>47254</v>
-      </c>
-    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>41041</v>
+        <v>47254</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>36356</v>
+        <v>41041</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>36107</v>
+        <v>36356</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B5">
-        <v>35857</v>
+        <v>36107</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6">
-        <v>34946</v>
+        <v>35857</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7">
-        <v>34300</v>
+        <v>34946</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>35609</v>
+        <v>34300</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9">
-        <v>34817</v>
+        <v>35609</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>35719</v>
+        <v>34817</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>43072</v>
+        <v>35719</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B12">
-        <v>46180</v>
+        <v>43072</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B13">
-        <v>45072</v>
+        <v>46180</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B14">
-        <v>40995</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="B15">
-        <v>38390</v>
+        <v>40995</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>500</v>
+      </c>
+      <c r="B16">
+        <v>38390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1000</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>47957</v>
       </c>
     </row>
